--- a/biology/Botanique/Chionanthus_retusus/Chionanthus_retusus.xlsx
+++ b/biology/Botanique/Chionanthus_retusus/Chionanthus_retusus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre à franges de Chine, Arbre de neige
-Chionanthus retusus, ou Arbre à franges de Chine, parfois Arbre de neige[1], est une espèce d'arbres de la famille des Oleaceae originaires de Chine, de Corée et du Japon. Le nom vernaculaire ambigu d'« Arbre de neige » désigne plus généralement l'espèce voisine Chionanthus virginicus dite également « Arbre à franges »[2],[3], originaire de l'est des États-Unis.
+Chionanthus retusus, ou Arbre à franges de Chine, parfois Arbre de neige, est une espèce d'arbres de la famille des Oleaceae originaires de Chine, de Corée et du Japon. Le nom vernaculaire ambigu d'« Arbre de neige » désigne plus généralement l'espèce voisine Chionanthus virginicus dite également « Arbre à franges » originaire de l'est des États-Unis.
 </t>
         </is>
       </c>
